--- a/4_Testing Documentation/Praktikum/soal_prioritas_2/soal_prioritas_2.xlsx
+++ b/4_Testing Documentation/Praktikum/soal_prioritas_2/soal_prioritas_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qe_Fery-Hafidz\4_Testing Documentation\Praktikum\soal_prioritas_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CF532-8B81-4A6A-99CA-4BCA4DD09F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF8BE61-FB1D-4DA9-9C87-691006FFE3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Code</t>
   </si>
@@ -138,11 +160,6 @@
   </si>
   <si>
     <t>User input the valid username/email and the invalid password</t>
-  </si>
-  <si>
-    <t>-user enters the Github login page
--user enters the valid username/email and invalid password
--user clicks the login button</t>
   </si>
   <si>
     <t>there is a message that the username and password are incorrect</t>
@@ -677,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -708,7 +725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -734,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -760,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -770,69 +787,72 @@
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
+      <c r="D6" s="5" t="e" cm="1">
+        <f t="array" ref="D6">-user enters the Github login page
+-user enters the valid username/email and invalid password
+-user clicks the login button</f>
+        <v>#NAME?</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>17</v>
@@ -876,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -884,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,22 +938,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>17</v>
@@ -944,22 +964,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>17</v>

--- a/4_Testing Documentation/Praktikum/soal_prioritas_2/soal_prioritas_2.xlsx
+++ b/4_Testing Documentation/Praktikum/soal_prioritas_2/soal_prioritas_2.xlsx
@@ -8,43 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qe_Fery-Hafidz\4_Testing Documentation\Praktikum\soal_prioritas_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF8BE61-FB1D-4DA9-9C87-691006FFE3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84882CE4-64A4-4C72-8611-790A891F0BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case - Register" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case - Login" sheetId="2" r:id="rId2"/>
     <sheet name="Test Case - Repository" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Code</t>
   </si>
@@ -221,6 +212,11 @@
   </si>
   <si>
     <t>an error message is displayed stating that the repository name already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -user enters the Github login page
+-user enters the valid username/email and invalid password
+-user clicks the login button</t>
   </si>
 </sst>
 </file>
@@ -531,7 +527,9 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A4:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -560,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -586,7 +584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -612,7 +610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -638,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -694,7 +692,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -787,11 +785,8 @@
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="e" cm="1">
-        <f t="array" ref="D6">-user enters the Github login page
--user enters the valid username/email and invalid password
--user clicks the login button</f>
-        <v>#NAME?</v>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -859,7 +854,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
@@ -878,7 +873,9 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -907,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -933,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -959,7 +956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
